--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3433855-FAA1-47F5-A559-646A14D21A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A73F7-084D-4E2B-81C7-1ECA003F068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Yöntem</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Fuzzy_2</t>
+  </si>
+  <si>
+    <t>Webster</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C158390A-6942-4003-A310-601D61940033}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,6 +666,20 @@
         <v>7200</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C10" s="1">
+        <v>714</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A73F7-084D-4E2B-81C7-1ECA003F068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED3E2F4-832D-4D54-A18E-F508EE402CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Yöntem</t>
   </si>
@@ -89,12 +89,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>Bekleyen her araç için 4 saniye yeşil</t>
-  </si>
-  <si>
-    <t>Bekleyen her araç için 3 saniye yeşil</t>
-  </si>
-  <si>
     <t>Bekleme süresi odaklı DQN</t>
   </si>
   <si>
@@ -108,6 +102,33 @@
   </si>
   <si>
     <t>Webster</t>
+  </si>
+  <si>
+    <t>Verilen yeşil süresi bazlı, Faz sırası önemli</t>
+  </si>
+  <si>
+    <t>Bekleyen her araç için 3 saniye yeşil, Faz sırası önemsiz</t>
+  </si>
+  <si>
+    <t>Verilen süre belirsiz, Faz sırası önemsiz</t>
+  </si>
+  <si>
+    <t>Bekleyen her araç için 4 saniye yeşil, Faz sırası önemsiz</t>
+  </si>
+  <si>
+    <t>Verilen süre belirli, Faz sırası önemli</t>
+  </si>
+  <si>
+    <t>Green Wave</t>
+  </si>
+  <si>
+    <t>Max Band</t>
+  </si>
+  <si>
+    <t>SOTL</t>
+  </si>
+  <si>
+    <t>SCATS</t>
   </si>
 </sst>
 </file>
@@ -515,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C158390A-6942-4003-A310-601D61940033}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +548,7 @@
     <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -613,12 +634,12 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>7200</v>
@@ -630,12 +651,12 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>7200</v>
@@ -647,15 +668,18 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>7200</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -665,19 +689,51 @@
       <c r="B9" s="1">
         <v>7200</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>7200</v>
       </c>
-      <c r="C10" s="1">
-        <v>714</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7200</v>
       </c>
     </row>
   </sheetData>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED3E2F4-832D-4D54-A18E-F508EE402CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B0C39-206D-41B1-8B07-F33FD4C3E09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -50,15 +50,9 @@
     <t>Actuated</t>
   </si>
   <si>
-    <t>Delay Based</t>
-  </si>
-  <si>
     <t>DQN</t>
   </si>
   <si>
-    <t>Max Pressure</t>
-  </si>
-  <si>
     <t>Araç Sayısı</t>
   </si>
   <si>
@@ -92,15 +86,6 @@
     <t>Bekleme süresi odaklı DQN</t>
   </si>
   <si>
-    <t>Fuzzy Signal Time</t>
-  </si>
-  <si>
-    <t>Fuzzy_1</t>
-  </si>
-  <si>
-    <t>Fuzzy_2</t>
-  </si>
-  <si>
     <t>Webster</t>
   </si>
   <si>
@@ -119,16 +104,31 @@
     <t>Verilen süre belirli, Faz sırası önemli</t>
   </si>
   <si>
-    <t>Green Wave</t>
-  </si>
-  <si>
-    <t>Max Band</t>
-  </si>
-  <si>
     <t>SOTL</t>
   </si>
   <si>
     <t>SCATS</t>
+  </si>
+  <si>
+    <t>DelayBased</t>
+  </si>
+  <si>
+    <t>MaxPressure</t>
+  </si>
+  <si>
+    <t>GreenWave</t>
+  </si>
+  <si>
+    <t>MaxBand</t>
+  </si>
+  <si>
+    <t>FuzzyPriority2</t>
+  </si>
+  <si>
+    <t>FuzzyPriority1</t>
+  </si>
+  <si>
+    <t>FuzzySignalTime</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,13 +559,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -580,10 +580,10 @@
         <v>715</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -597,15 +597,15 @@
         <v>715</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>7200</v>
@@ -614,15 +614,15 @@
         <v>714</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>7200</v>
@@ -631,15 +631,15 @@
         <v>715</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>7200</v>
@@ -648,15 +648,15 @@
         <v>716</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>7200</v>
@@ -665,48 +665,48 @@
         <v>717</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>7200</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>7200</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7200</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>7200</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>7200</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>7200</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>7200</v>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4B0C39-206D-41B1-8B07-F33FD4C3E09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9B2656-E4D6-4EA4-8546-E6825B5509E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Yöntem</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>FuzzySignalTime</t>
+  </si>
+  <si>
+    <t>145 saniye</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,6 +681,12 @@
       <c r="B8" s="1">
         <v>7200</v>
       </c>
+      <c r="C8" s="1">
+        <v>715</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9B2656-E4D6-4EA4-8546-E6825B5509E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB95270E-0940-4ACE-9249-7030ED630BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>FuzzySignalTime</t>
   </si>
   <si>
-    <t>145 saniye</t>
+    <t>136 saniye</t>
   </si>
 </sst>
 </file>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB95270E-0940-4ACE-9249-7030ED630BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C91AC-7AF9-4A6F-9CC2-0AC83AE35291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Yöntem</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Araç Sayısı</t>
   </si>
   <si>
-    <t>Ortalama Seyahat Süresi</t>
-  </si>
-  <si>
     <t>160 saniye</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>Bekleme süresi odaklı DQN</t>
-  </si>
-  <si>
     <t>Webster</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>Verilen süre belirli, Faz sırası önemli</t>
   </si>
   <si>
-    <t>SOTL</t>
-  </si>
-  <si>
     <t>SCATS</t>
   </si>
   <si>
@@ -116,12 +107,6 @@
     <t>MaxPressure</t>
   </si>
   <si>
-    <t>GreenWave</t>
-  </si>
-  <si>
-    <t>MaxBand</t>
-  </si>
-  <si>
     <t>FuzzyPriority2</t>
   </si>
   <si>
@@ -131,14 +116,23 @@
     <t>FuzzySignalTime</t>
   </si>
   <si>
-    <t>136 saniye</t>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>Bekleme süresi odaklı, Faz sırası önemsiz</t>
+  </si>
+  <si>
+    <t>Ort. Seyahat Süresi</t>
+  </si>
+  <si>
+    <t>133 saniye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +146,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,14 +166,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,19 +190,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -218,13 +199,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,6 +221,508 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>274320</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,20 +1021,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C158390A-6942-4003-A310-601D61940033}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C158390A-6942-4003-A310-601D61940033}">
+  <sheetPr codeName="Sayfa1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -565,188 +1050,352 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>7200</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>715</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>7200</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>715</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
         <v>7200</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>714</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>7200</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>715</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
         <v>7200</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>716</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
         <v>7200</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>717</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
         <v>7200</v>
       </c>
-      <c r="C8" s="1">
-        <v>715</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="3">
+        <v>716</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
         <v>7200</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
         <v>7200</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7200</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId4" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId5" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId6" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId7" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId8" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId9" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId10" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>274320</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C91AC-7AF9-4A6F-9CC2-0AC83AE35291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B9A63-AD4C-4698-876B-CC953E8C4609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Yöntem</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>133 saniye</t>
+  </si>
+  <si>
+    <t>123.6 saniye</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +166,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,10 +217,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,7 +259,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,7 +1045,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,50 +1193,54 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>7200</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>716</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>7200</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="5">
+        <v>717</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>7200</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B9A63-AD4C-4698-876B-CC953E8C4609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0FBBA0-642E-40C9-91EF-96D3E19655BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Yöntem</t>
   </si>
@@ -80,9 +80,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>Webster</t>
-  </si>
-  <si>
     <t>Verilen yeşil süresi bazlı, Faz sırası önemli</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>123.6 saniye</t>
+  </si>
+  <si>
+    <t>140 saniye</t>
+  </si>
+  <si>
+    <t>Webster'sMethod</t>
   </si>
 </sst>
 </file>
@@ -263,7 +266,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1120,7 +1123,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>7200</v>
@@ -1152,13 +1155,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>7200</v>
@@ -1170,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>7200</v>
@@ -1188,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5">
         <v>7200</v>
@@ -1203,16 +1206,16 @@
         <v>716</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>7200</v>
@@ -1221,30 +1224,34 @@
         <v>717</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>7200</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5">
+        <v>715</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>7200</v>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0FBBA0-642E-40C9-91EF-96D3E19655BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2DA128-059F-41F2-B78C-DC54F5647A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -128,10 +128,10 @@
     <t>123.6 saniye</t>
   </si>
   <si>
-    <t>140 saniye</t>
-  </si>
-  <si>
     <t>Webster'sMethod</t>
+  </si>
+  <si>
+    <t>127.6 saniye</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5">
         <v>7200</v>
       </c>
       <c r="C10" s="5">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2DA128-059F-41F2-B78C-DC54F5647A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6229E-664E-4AC8-AC30-D87E9FB8C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>Bekleyen her araç için 4 saniye yeşil, Faz sırası önemsiz</t>
   </si>
   <si>
-    <t>Verilen süre belirli, Faz sırası önemli</t>
-  </si>
-  <si>
     <t>SCATS</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>127.6 saniye</t>
+  </si>
+  <si>
+    <t>Verilen süre belirli, Faz sırası önemli, Faz atlama var</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,7 +180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,6 +234,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,7 +1058,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,13 +1082,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,7 +1133,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>7200</v>
@@ -1155,13 +1165,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>7200</v>
@@ -1179,7 +1189,7 @@
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>7200</v>
@@ -1197,7 +1207,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>7200</v>
@@ -1206,7 +1216,7 @@
         <v>716</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -1215,7 +1225,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <v>7200</v>
@@ -1224,7 +1234,7 @@
         <v>717</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -1232,26 +1242,26 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7">
+        <v>7200</v>
+      </c>
+      <c r="C10" s="7">
+        <v>716</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5">
-        <v>7200</v>
-      </c>
-      <c r="C10" s="5">
-        <v>716</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>7200</v>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6229E-664E-4AC8-AC30-D87E9FB8C530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE8225-8325-4CD0-8FA8-0E1345376729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Yöntem</t>
   </si>
@@ -68,12 +68,6 @@
     <t>128.9 saniye</t>
   </si>
   <si>
-    <t>129.2 saniye</t>
-  </si>
-  <si>
-    <t>127 saniye</t>
-  </si>
-  <si>
     <t>NOTLAR</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Bekleyen her araç için 4 saniye yeşil, Faz sırası önemsiz</t>
   </si>
   <si>
-    <t>SCATS</t>
-  </si>
-  <si>
     <t>DelayBased</t>
   </si>
   <si>
@@ -122,16 +113,22 @@
     <t>133 saniye</t>
   </si>
   <si>
-    <t>123.6 saniye</t>
-  </si>
-  <si>
     <t>Webster'sMethod</t>
   </si>
   <si>
-    <t>127.6 saniye</t>
-  </si>
-  <si>
     <t>Verilen süre belirli, Faz sırası önemli, Faz atlama var</t>
+  </si>
+  <si>
+    <t>124.0 saniye</t>
+  </si>
+  <si>
+    <t>128 saniye</t>
+  </si>
+  <si>
+    <t>129 saniye</t>
+  </si>
+  <si>
+    <t>129.7 saniye</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,18 +172,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,14 +215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,10 +254,6 @@
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,73 +660,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>274320</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1055,10 +961,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C158390A-6942-4003-A310-601D61940033}">
   <sheetPr codeName="Sayfa1"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,13 +988,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,10 +1011,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1125,15 +1031,15 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>7200</v>
@@ -1145,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1165,31 +1071,31 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>7200</v>
       </c>
       <c r="C6" s="3">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>7200</v>
@@ -1198,78 +1104,66 @@
         <v>717</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
         <v>7200</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>716</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
         <v>7200</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>717</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
         <v>7200</v>
       </c>
-      <c r="C10" s="7">
-        <v>716</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="3">
+        <v>714</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7200</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1412,28 +1306,6 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId10" name="Check Box 20">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>68580</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>274320</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE8225-8325-4CD0-8FA8-0E1345376729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FC29C-FE7F-4DB2-9D29-672CEA09EEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -110,25 +110,25 @@
     <t>Ort. Seyahat Süresi</t>
   </si>
   <si>
-    <t>133 saniye</t>
-  </si>
-  <si>
     <t>Webster'sMethod</t>
   </si>
   <si>
     <t>Verilen süre belirli, Faz sırası önemli, Faz atlama var</t>
   </si>
   <si>
-    <t>124.0 saniye</t>
-  </si>
-  <si>
-    <t>128 saniye</t>
-  </si>
-  <si>
-    <t>129 saniye</t>
-  </si>
-  <si>
-    <t>129.7 saniye</t>
+    <t>133.8 saniye</t>
+  </si>
+  <si>
+    <t>123.3 saniye</t>
+  </si>
+  <si>
+    <t>127.6 saniye</t>
+  </si>
+  <si>
+    <t>127.3 saniye</t>
+  </si>
+  <si>
+    <t>128.8 saniye</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,10 +1083,10 @@
         <v>7200</v>
       </c>
       <c r="C6" s="3">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -1101,10 +1101,10 @@
         <v>7200</v>
       </c>
       <c r="C7" s="3">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -1119,10 +1119,10 @@
         <v>7200</v>
       </c>
       <c r="C8" s="3">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
@@ -1149,19 +1149,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>7200</v>
       </c>
       <c r="C10" s="3">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4"/>
     </row>

--- a/trafficcontrolalgorithms.xlsx
+++ b/trafficcontrolalgorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Implementations\Mosas Studies\TrafficControlAlgorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FC29C-FE7F-4DB2-9D29-672CEA09EEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E919C6B2-9C49-4D1F-961B-6439CC63936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B799F520-5209-4C24-A23B-39541E2D1861}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>DelayBased</t>
   </si>
   <si>
-    <t>MaxPressure</t>
-  </si>
-  <si>
     <t>FuzzyPriority2</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>128.8 saniye</t>
+  </si>
+  <si>
+    <t>MaxPressure (BackPressure)</t>
   </si>
 </sst>
 </file>
@@ -963,17 +963,15 @@
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -988,13 +986,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1071,13 +1069,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>7200</v>
@@ -1086,7 +1084,7 @@
         <v>716</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -1095,7 +1093,7 @@
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>7200</v>
@@ -1104,7 +1102,7 @@
         <v>716</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -1113,7 +1111,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>7200</v>
@@ -1122,7 +1120,7 @@
         <v>715</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
@@ -1131,7 +1129,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <v>7200</v>
@@ -1140,7 +1138,7 @@
         <v>717</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
@@ -1149,7 +1147,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
         <v>7200</v>
@@ -1158,10 +1156,10 @@
         <v>715</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4"/>
     </row>
